--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value677.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value677.xlsx
@@ -357,7 +357,7 @@
         <v>2.721842209428726</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>0.6408028997387796</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value677.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value677.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.591372967817844</v>
+        <v>1.518329262733459</v>
       </c>
       <c r="B1">
-        <v>1.953413890133021</v>
+        <v>1.843080997467041</v>
       </c>
       <c r="C1">
-        <v>2.721842209428726</v>
+        <v>1.961581945419312</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.265778779983521</v>
       </c>
       <c r="E1">
-        <v>0.6408028997387796</v>
+        <v>2.852095365524292</v>
       </c>
     </row>
   </sheetData>
